--- a/world_bank.xlsx
+++ b/world_bank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="416">
   <si>
     <t>Country Name</t>
   </si>
@@ -82,10 +82,7 @@
     <t>Mortality rate, under-5 (per 1,0</t>
   </si>
   <si>
-    <t>Mortality rate, under-5, female</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5, male (p</t>
+    <t>Mortality rate Gender Difference</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
@@ -1256,6 +1253,9 @@
   </si>
   <si>
     <t>AF</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>SA</t>
@@ -1619,13 +1619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AA193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,22 +1704,19 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2">
         <v>99.0956</v>
@@ -1776,33 +1773,30 @@
         <v>103.7</v>
       </c>
       <c r="X2">
-        <v>100.4</v>
+        <v>6.299999999999997</v>
       </c>
       <c r="Y2">
-        <v>106.7</v>
+        <v>2.4584170854777</v>
       </c>
       <c r="Z2">
-        <v>2.4584170854777</v>
+        <v>66</v>
       </c>
       <c r="AA2">
-        <v>66</v>
-      </c>
-      <c r="AB2">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3">
         <v>2.8428039828</v>
@@ -1862,33 +1856,30 @@
         <v>18.1</v>
       </c>
       <c r="X3">
-        <v>16.3</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="Y3">
-        <v>19.7</v>
+        <v>-0.0330723939302266</v>
       </c>
       <c r="Z3">
-        <v>-0.0330723939302266</v>
+        <v>99</v>
       </c>
       <c r="AA3">
         <v>99</v>
       </c>
-      <c r="AB3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4">
         <v>4.4671956323</v>
@@ -1948,33 +1939,30 @@
         <v>21.5</v>
       </c>
       <c r="X4">
-        <v>19</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="Y4">
-        <v>23.8</v>
+        <v>1.85043776574628</v>
       </c>
       <c r="Z4">
-        <v>1.85043776574628</v>
+        <v>95</v>
       </c>
       <c r="AA4">
         <v>95</v>
       </c>
-      <c r="AB4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E5">
         <v>2.88915</v>
@@ -2004,33 +1992,30 @@
         <v>3.5</v>
       </c>
       <c r="X5">
-        <v>3.1</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="Y5">
-        <v>3.8</v>
+        <v>-0.960624634811087</v>
       </c>
       <c r="Z5">
-        <v>-0.960624634811087</v>
+        <v>99</v>
       </c>
       <c r="AA5">
         <v>99</v>
       </c>
-      <c r="AB5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E6">
         <v>3.51677</v>
@@ -2090,30 +2075,30 @@
         <v>173.1</v>
       </c>
       <c r="X6">
-        <v>164.5</v>
+        <v>16.59999999999999</v>
       </c>
       <c r="Y6">
-        <v>181.1</v>
+        <v>3.23594954587449</v>
       </c>
       <c r="Z6">
-        <v>3.23594954587449</v>
+        <v>91</v>
       </c>
       <c r="AA6">
-        <v>91</v>
-      </c>
-      <c r="AB6">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="D7" t="s">
+        <v>413</v>
       </c>
       <c r="E7">
         <v>2.15941</v>
@@ -2173,30 +2158,27 @@
         <v>10.6</v>
       </c>
       <c r="X7">
-        <v>9.4</v>
+        <v>2.299999999999999</v>
       </c>
       <c r="Y7">
-        <v>11.7</v>
+        <v>1.07531016020298</v>
       </c>
       <c r="Z7">
-        <v>1.07531016020298</v>
+        <v>98</v>
       </c>
       <c r="AA7">
         <v>98</v>
       </c>
-      <c r="AB7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
         <v>414</v>
@@ -2247,33 +2229,30 @@
         <v>14.8</v>
       </c>
       <c r="X8">
-        <v>13.3</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>16.3</v>
+        <v>0.872125701642859</v>
       </c>
       <c r="Z8">
-        <v>0.872125701642859</v>
+        <v>94</v>
       </c>
       <c r="AA8">
-        <v>94</v>
-      </c>
-      <c r="AB8">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E9">
         <v>2.2196904037</v>
@@ -2333,30 +2312,27 @@
         <v>18.2</v>
       </c>
       <c r="X9">
-        <v>16.1</v>
+        <v>4.099999999999998</v>
       </c>
       <c r="Y9">
-        <v>20.2</v>
+        <v>-0.157055826202578</v>
       </c>
       <c r="Z9">
-        <v>-0.157055826202578</v>
+        <v>94</v>
       </c>
       <c r="AA9">
-        <v>94</v>
-      </c>
-      <c r="AB9">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
         <v>415</v>
@@ -2419,33 +2395,30 @@
         <v>5</v>
       </c>
       <c r="X10">
-        <v>4.4</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="Y10">
-        <v>5.6</v>
+        <v>1.30692192539309</v>
       </c>
       <c r="Z10">
-        <v>1.30692192539309</v>
+        <v>92</v>
       </c>
       <c r="AA10">
-        <v>92</v>
-      </c>
-      <c r="AB10">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E11">
         <v>5.28818</v>
@@ -2505,33 +2478,30 @@
         <v>4.2</v>
       </c>
       <c r="X11">
-        <v>3.7</v>
+        <v>0.8999999999999995</v>
       </c>
       <c r="Y11">
-        <v>4.6</v>
+        <v>0.292401673539314</v>
       </c>
       <c r="Z11">
-        <v>0.292401673539314</v>
+        <v>83</v>
       </c>
       <c r="AA11">
-        <v>83</v>
-      </c>
-      <c r="AB11">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12">
         <v>3.42265</v>
@@ -2591,30 +2561,30 @@
         <v>38.5</v>
       </c>
       <c r="X12">
-        <v>35.3</v>
+        <v>6.200000000000003</v>
       </c>
       <c r="Y12">
-        <v>41.5</v>
+        <v>1.18978770786007</v>
       </c>
       <c r="Z12">
-        <v>1.18978770786007</v>
+        <v>75</v>
       </c>
       <c r="AA12">
-        <v>75</v>
-      </c>
-      <c r="AB12">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>413</v>
       </c>
       <c r="E13">
         <v>3.8356</v>
@@ -2674,33 +2644,30 @@
         <v>17.6</v>
       </c>
       <c r="X13">
-        <v>16.2</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="Y13">
-        <v>18.9</v>
+        <v>1.68006301376313</v>
       </c>
       <c r="Z13">
-        <v>1.68006301376313</v>
+        <v>99</v>
       </c>
       <c r="AA13">
-        <v>99</v>
-      </c>
-      <c r="AB13">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E14">
         <v>3.02843</v>
@@ -2760,33 +2727,30 @@
         <v>10.1</v>
       </c>
       <c r="X14">
-        <v>9.699999999999999</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="Y14">
-        <v>10.4</v>
+        <v>4.91074704991069</v>
       </c>
       <c r="Z14">
-        <v>4.91074704991069</v>
+        <v>99</v>
       </c>
       <c r="AA14">
         <v>99</v>
       </c>
-      <c r="AB14">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E15">
         <v>1.8106</v>
@@ -2846,30 +2810,30 @@
         <v>47.2</v>
       </c>
       <c r="X15">
-        <v>44.2</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="Y15">
-        <v>50.1</v>
+        <v>1.0793323621772</v>
       </c>
       <c r="Z15">
-        <v>1.0793323621772</v>
+        <v>95</v>
       </c>
       <c r="AA15">
-        <v>95</v>
-      </c>
-      <c r="AB15">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>413</v>
       </c>
       <c r="E16">
         <v>7.37295</v>
@@ -2929,33 +2893,30 @@
         <v>19.3</v>
       </c>
       <c r="X16">
-        <v>17.5</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="Y16">
-        <v>20.9</v>
+        <v>0.496960275697635</v>
       </c>
       <c r="Z16">
-        <v>0.496960275697635</v>
+        <v>86</v>
       </c>
       <c r="AA16">
-        <v>86</v>
-      </c>
-      <c r="AB16">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E17">
         <v>4.39722</v>
@@ -3015,33 +2976,30 @@
         <v>6.1</v>
       </c>
       <c r="X17">
-        <v>5.3</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="Y17">
-        <v>6.9</v>
+        <v>-0.178975675505685</v>
       </c>
       <c r="Z17">
-        <v>-0.178975675505685</v>
+        <v>98</v>
       </c>
       <c r="AA17">
-        <v>98</v>
-      </c>
-      <c r="AB17">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E18">
         <v>6.12141</v>
@@ -3101,30 +3059,30 @@
         <v>4.4</v>
       </c>
       <c r="X18">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>4.9</v>
+        <v>0.913639391631709</v>
       </c>
       <c r="Z18">
-        <v>0.913639391631709</v>
+        <v>99</v>
       </c>
       <c r="AA18">
-        <v>99</v>
-      </c>
-      <c r="AB18">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>413</v>
       </c>
       <c r="E19">
         <v>6.92215</v>
@@ -3184,33 +3142,30 @@
         <v>19.3</v>
       </c>
       <c r="X19">
-        <v>17.1</v>
+        <v>4.099999999999998</v>
       </c>
       <c r="Y19">
-        <v>21.2</v>
+        <v>2.48663181119864</v>
       </c>
       <c r="Z19">
-        <v>2.48663181119864</v>
+        <v>96</v>
       </c>
       <c r="AA19">
-        <v>96</v>
-      </c>
-      <c r="AB19">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20">
         <v>4.26573</v>
@@ -3270,33 +3225,30 @@
         <v>96.2</v>
       </c>
       <c r="X20">
-        <v>91.7</v>
+        <v>8.700000000000003</v>
       </c>
       <c r="Y20">
-        <v>100.4</v>
+        <v>2.86960132094712</v>
       </c>
       <c r="Z20">
-        <v>2.86960132094712</v>
+        <v>83</v>
       </c>
       <c r="AA20">
-        <v>83</v>
-      </c>
-      <c r="AB20">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E21">
         <v>3.24195</v>
@@ -3356,30 +3308,27 @@
         <v>48.1</v>
       </c>
       <c r="X21">
-        <v>43.7</v>
+        <v>8.5</v>
       </c>
       <c r="Y21">
-        <v>52.2</v>
+        <v>1.74428139606895</v>
       </c>
       <c r="Z21">
-        <v>1.74428139606895</v>
+        <v>91</v>
       </c>
       <c r="AA21">
-        <v>91</v>
-      </c>
-      <c r="AB21">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s">
         <v>414</v>
@@ -3442,33 +3391,30 @@
         <v>44.9</v>
       </c>
       <c r="X22">
-        <v>40.8</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="Y22">
-        <v>48.9</v>
+        <v>1.61983634385803</v>
       </c>
       <c r="Z22">
-        <v>1.61983634385803</v>
+        <v>80</v>
       </c>
       <c r="AA22">
-        <v>80</v>
-      </c>
-      <c r="AB22">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F23">
         <v>15.8756</v>
@@ -3525,33 +3471,30 @@
         <v>7.5</v>
       </c>
       <c r="X23">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="Y23">
-        <v>8.199999999999999</v>
+        <v>-0.195262664524603</v>
       </c>
       <c r="Z23">
-        <v>-0.195262664524603</v>
+        <v>89</v>
       </c>
       <c r="AA23">
-        <v>89</v>
-      </c>
-      <c r="AB23">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E24">
         <v>7.61146</v>
@@ -3611,30 +3554,27 @@
         <v>57.7</v>
       </c>
       <c r="X24">
-        <v>53.1</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="Y24">
-        <v>62</v>
+        <v>0.899049578694651</v>
       </c>
       <c r="Z24">
-        <v>0.899049578694651</v>
+        <v>96</v>
       </c>
       <c r="AA24">
-        <v>96</v>
-      </c>
-      <c r="AB24">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
         <v>414</v>
@@ -3697,33 +3637,30 @@
         <v>16.3</v>
       </c>
       <c r="X25">
-        <v>14.2</v>
+        <v>4</v>
       </c>
       <c r="Y25">
-        <v>18.2</v>
+        <v>0.884609442807871</v>
       </c>
       <c r="Z25">
-        <v>0.884609442807871</v>
+        <v>98</v>
       </c>
       <c r="AA25">
-        <v>98</v>
-      </c>
-      <c r="AB25">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E26">
         <v>2.02524</v>
@@ -3783,33 +3720,30 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X26">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="Y26">
-        <v>8.9</v>
+        <v>1.55204135848334</v>
       </c>
       <c r="Z26">
-        <v>1.55204135848334</v>
+        <v>95</v>
       </c>
       <c r="AA26">
-        <v>95</v>
-      </c>
-      <c r="AB26">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E27">
         <v>4.12315</v>
@@ -3869,33 +3803,30 @@
         <v>13</v>
       </c>
       <c r="X27">
-        <v>11.6</v>
+        <v>2.700000000000001</v>
       </c>
       <c r="Y27">
-        <v>14.3</v>
+        <v>-0.672541560945809</v>
       </c>
       <c r="Z27">
-        <v>-0.672541560945809</v>
+        <v>94</v>
       </c>
       <c r="AA27">
-        <v>94</v>
-      </c>
-      <c r="AB27">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E28">
         <v>3.37766</v>
@@ -3955,33 +3886,30 @@
         <v>114.6</v>
       </c>
       <c r="X28">
-        <v>109.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y28">
-        <v>119.7</v>
+        <v>2.90742431887266</v>
       </c>
       <c r="Z28">
-        <v>2.90742431887266</v>
+        <v>91</v>
       </c>
       <c r="AA28">
-        <v>91</v>
-      </c>
-      <c r="AB28">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E29">
         <v>8.72082</v>
@@ -4041,33 +3969,30 @@
         <v>111.8</v>
       </c>
       <c r="X29">
-        <v>104.7</v>
+        <v>13.89999999999999</v>
       </c>
       <c r="Y29">
-        <v>118.6</v>
+        <v>3.37119411527642</v>
       </c>
       <c r="Z29">
-        <v>3.37119411527642</v>
+        <v>96</v>
       </c>
       <c r="AA29">
-        <v>96</v>
-      </c>
-      <c r="AB29">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E30">
         <v>4.94593</v>
@@ -4127,33 +4052,30 @@
         <v>23.7</v>
       </c>
       <c r="X30">
-        <v>21</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="Y30">
-        <v>26.3</v>
+        <v>0.387747515290286</v>
       </c>
       <c r="Z30">
-        <v>0.387747515290286</v>
+        <v>99</v>
       </c>
       <c r="AA30">
-        <v>99</v>
-      </c>
-      <c r="AB30">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E31">
         <v>1.63446</v>
@@ -4213,33 +4135,30 @@
         <v>43.8</v>
       </c>
       <c r="X31">
-        <v>38.8</v>
+        <v>9.700000000000003</v>
       </c>
       <c r="Y31">
-        <v>48.5</v>
+        <v>1.54834755040722</v>
       </c>
       <c r="Z31">
-        <v>1.54834755040722</v>
+        <v>92</v>
       </c>
       <c r="AA31">
-        <v>92</v>
-      </c>
-      <c r="AB31">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E32">
         <v>3.10516</v>
@@ -4299,30 +4218,30 @@
         <v>102.6</v>
       </c>
       <c r="X32">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="Y32">
-        <v>109</v>
+        <v>2.55560127043499</v>
       </c>
       <c r="Z32">
-        <v>2.55560127043499</v>
+        <v>84</v>
       </c>
       <c r="AA32">
-        <v>84</v>
-      </c>
-      <c r="AB32">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>413</v>
       </c>
       <c r="E33">
         <v>4.47921</v>
@@ -4382,33 +4301,30 @@
         <v>5.6</v>
       </c>
       <c r="X33">
-        <v>5.1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="Y33">
-        <v>6</v>
+        <v>1.17794025271196</v>
       </c>
       <c r="Z33">
-        <v>1.17794025271196</v>
+        <v>95</v>
       </c>
       <c r="AA33">
-        <v>95</v>
-      </c>
-      <c r="AB33">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E34">
         <v>1.14471</v>
@@ -4468,33 +4384,30 @@
         <v>137.8</v>
       </c>
       <c r="X34">
-        <v>131</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="Y34">
-        <v>144.3</v>
+        <v>1.94231659712798</v>
       </c>
       <c r="Z34">
-        <v>1.94231659712798</v>
+        <v>45</v>
       </c>
       <c r="AA34">
-        <v>45</v>
-      </c>
-      <c r="AB34">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E35">
         <v>2.25891</v>
@@ -4554,30 +4467,27 @@
         <v>159</v>
       </c>
       <c r="X35">
-        <v>151.1</v>
+        <v>15.09999999999999</v>
       </c>
       <c r="Y35">
-        <v>166.2</v>
+        <v>3.02685844405502</v>
       </c>
       <c r="Z35">
-        <v>3.02685844405502</v>
+        <v>39</v>
       </c>
       <c r="AA35">
-        <v>39</v>
-      </c>
-      <c r="AB35">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
         <v>414</v>
@@ -4640,33 +4550,30 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X36">
-        <v>8.300000000000001</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="Y36">
-        <v>10</v>
+        <v>0.931579124826456</v>
       </c>
       <c r="Z36">
-        <v>0.931579124826456</v>
+        <v>92</v>
       </c>
       <c r="AA36">
-        <v>92</v>
-      </c>
-      <c r="AB36">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E37">
         <v>1.80661</v>
@@ -4726,30 +4633,27 @@
         <v>16</v>
       </c>
       <c r="X37">
-        <v>14.8</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="Y37">
-        <v>17</v>
+        <v>0.482959688678361</v>
       </c>
       <c r="Z37">
-        <v>0.482959688678361</v>
+        <v>99</v>
       </c>
       <c r="AA37">
         <v>99</v>
       </c>
-      <c r="AB37">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" t="s">
         <v>414</v>
@@ -4812,33 +4716,30 @@
         <v>18.7</v>
       </c>
       <c r="X38">
-        <v>16.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y38">
-        <v>20.9</v>
+        <v>1.39244610123457</v>
       </c>
       <c r="Z38">
-        <v>1.39244610123457</v>
+        <v>88</v>
       </c>
       <c r="AA38">
         <v>88</v>
       </c>
-      <c r="AB38">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E39">
         <v>4.1885527841</v>
@@ -4898,33 +4799,30 @@
         <v>82.59999999999999</v>
       </c>
       <c r="X39">
-        <v>76.7</v>
+        <v>11.5</v>
       </c>
       <c r="Y39">
-        <v>88.2</v>
+        <v>2.51781413945989</v>
       </c>
       <c r="Z39">
-        <v>2.51781413945989</v>
+        <v>74</v>
       </c>
       <c r="AA39">
-        <v>74</v>
-      </c>
-      <c r="AB39">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E40">
         <v>2.42834</v>
@@ -4984,33 +4882,30 @@
         <v>155.1</v>
       </c>
       <c r="X40">
-        <v>146</v>
+        <v>17.69999999999999</v>
       </c>
       <c r="Y40">
-        <v>163.7</v>
+        <v>2.77963872089494</v>
       </c>
       <c r="Z40">
-        <v>2.77963872089494</v>
+        <v>60</v>
       </c>
       <c r="AA40">
-        <v>60</v>
-      </c>
-      <c r="AB40">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E41">
         <v>2.46641</v>
@@ -5070,30 +4965,30 @@
         <v>101.7</v>
       </c>
       <c r="X41">
-        <v>96</v>
+        <v>11.09999999999999</v>
       </c>
       <c r="Y41">
-        <v>107.1</v>
+        <v>2.87600921797759</v>
       </c>
       <c r="Z41">
-        <v>2.87600921797759</v>
+        <v>90</v>
       </c>
       <c r="AA41">
         <v>90</v>
       </c>
-      <c r="AB41">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="D42" t="s">
+        <v>413</v>
       </c>
       <c r="E42">
         <v>6.2387</v>
@@ -5153,33 +5048,30 @@
         <v>10.3</v>
       </c>
       <c r="X42">
-        <v>9.199999999999999</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="Y42">
-        <v>11.3</v>
+        <v>1.47257967786862</v>
       </c>
       <c r="Z42">
-        <v>1.47257967786862</v>
+        <v>88</v>
       </c>
       <c r="AA42">
-        <v>88</v>
-      </c>
-      <c r="AB42">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E43">
         <v>4.32469</v>
@@ -5239,33 +5131,30 @@
         <v>113.9</v>
       </c>
       <c r="X43">
-        <v>105</v>
+        <v>17.3</v>
       </c>
       <c r="Y43">
-        <v>122.3</v>
+        <v>1.99722801904528</v>
       </c>
       <c r="Z43">
-        <v>1.99722801904528</v>
+        <v>85</v>
       </c>
       <c r="AA43">
-        <v>85</v>
-      </c>
-      <c r="AB43">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E44">
         <v>4.12972</v>
@@ -5325,30 +5214,30 @@
         <v>5.2</v>
       </c>
       <c r="X44">
-        <v>4.8</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="Y44">
-        <v>5.7</v>
+        <v>-0.253199032047199</v>
       </c>
       <c r="Z44">
-        <v>-0.253199032047199</v>
+        <v>97</v>
       </c>
       <c r="AA44">
-        <v>97</v>
-      </c>
-      <c r="AB44">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="D45" t="s">
+        <v>413</v>
       </c>
       <c r="E45">
         <v>12.93185</v>
@@ -5405,33 +5294,30 @@
         <v>6</v>
       </c>
       <c r="X45">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="Y45">
-        <v>6.6</v>
+        <v>-0.0625415549990251</v>
       </c>
       <c r="Z45">
-        <v>-0.0625415549990251</v>
+        <v>96</v>
       </c>
       <c r="AA45">
-        <v>96</v>
-      </c>
-      <c r="AB45">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E46">
         <v>6.85852</v>
@@ -5491,33 +5377,30 @@
         <v>3.6</v>
       </c>
       <c r="X46">
-        <v>3.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y46">
-        <v>3.9</v>
+        <v>1.19696740172674</v>
       </c>
       <c r="Z46">
-        <v>1.19696740172674</v>
+        <v>99</v>
       </c>
       <c r="AA46">
-        <v>99</v>
-      </c>
-      <c r="AB46">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E47">
         <v>4.24543</v>
@@ -5577,33 +5460,30 @@
         <v>4.1</v>
       </c>
       <c r="X47">
-        <v>3.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>0.310506714712577</v>
       </c>
       <c r="Z47">
-        <v>0.310506714712577</v>
+        <v>99</v>
       </c>
       <c r="AA47">
-        <v>99</v>
-      </c>
-      <c r="AB47">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E48">
         <v>8.130739999999999</v>
@@ -5663,33 +5543,30 @@
         <v>4</v>
       </c>
       <c r="X48">
-        <v>3.6</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="Y48">
-        <v>4.4</v>
+        <v>0.444197154509531</v>
       </c>
       <c r="Z48">
-        <v>0.444197154509531</v>
+        <v>90</v>
       </c>
       <c r="AA48">
-        <v>90</v>
-      </c>
-      <c r="AB48">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F49">
         <v>19.9944</v>
@@ -5734,30 +5611,30 @@
         <v>85.90000000000001</v>
       </c>
       <c r="X49">
-        <v>80.09999999999999</v>
+        <v>11.30000000000001</v>
       </c>
       <c r="Y49">
-        <v>91.40000000000001</v>
+        <v>1.47004189030438</v>
       </c>
       <c r="Z49">
-        <v>1.47004189030438</v>
+        <v>88</v>
       </c>
       <c r="AA49">
-        <v>88</v>
-      </c>
-      <c r="AB49">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="D50" t="s">
+        <v>413</v>
       </c>
       <c r="E50">
         <v>3.13722</v>
@@ -5796,30 +5673,30 @@
         <v>13.1</v>
       </c>
       <c r="X50">
-        <v>12</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="Y50">
-        <v>14.2</v>
+        <v>0.240569040424977</v>
       </c>
       <c r="Z50">
-        <v>0.240569040424977</v>
+        <v>98</v>
       </c>
       <c r="AA50">
-        <v>98</v>
-      </c>
-      <c r="AB50">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="D51" t="s">
+        <v>413</v>
       </c>
       <c r="E51">
         <v>1.87715</v>
@@ -5879,30 +5756,27 @@
         <v>28.8</v>
       </c>
       <c r="X51">
-        <v>25.8</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="Y51">
-        <v>31.7</v>
+        <v>1.33192851010666</v>
       </c>
       <c r="Z51">
-        <v>1.33192851010666</v>
+        <v>88</v>
       </c>
       <c r="AA51">
-        <v>88</v>
-      </c>
-      <c r="AB51">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D52" t="s">
         <v>414</v>
@@ -5965,33 +5839,30 @@
         <v>24.8</v>
       </c>
       <c r="X52">
-        <v>21.7</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="Y52">
-        <v>27.8</v>
+        <v>1.64431518193676</v>
       </c>
       <c r="Z52">
-        <v>1.64431518193676</v>
+        <v>99</v>
       </c>
       <c r="AA52">
-        <v>99</v>
-      </c>
-      <c r="AB52">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E53">
         <v>4.411125573</v>
@@ -6051,30 +5922,30 @@
         <v>23</v>
       </c>
       <c r="X53">
-        <v>21.9</v>
+        <v>2.200000000000003</v>
       </c>
       <c r="Y53">
-        <v>24.1</v>
+        <v>1.67995670039064</v>
       </c>
       <c r="Z53">
-        <v>1.67995670039064</v>
+        <v>97</v>
       </c>
       <c r="AA53">
-        <v>97</v>
-      </c>
-      <c r="AB53">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="D54" t="s">
+        <v>413</v>
       </c>
       <c r="E54">
         <v>3.03281</v>
@@ -6134,33 +6005,30 @@
         <v>17.3</v>
       </c>
       <c r="X54">
-        <v>15.2</v>
+        <v>4</v>
       </c>
       <c r="Y54">
-        <v>19.2</v>
+        <v>0.559780504563458</v>
       </c>
       <c r="Z54">
-        <v>0.559780504563458</v>
+        <v>92</v>
       </c>
       <c r="AA54">
         <v>92</v>
       </c>
-      <c r="AB54">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E55">
         <v>1.15841</v>
@@ -6220,33 +6088,30 @@
         <v>107</v>
       </c>
       <c r="X55">
-        <v>100.7</v>
+        <v>12.39999999999999</v>
       </c>
       <c r="Y55">
-        <v>113.1</v>
+        <v>2.8138414018624</v>
       </c>
       <c r="Z55">
-        <v>2.8138414018624</v>
+        <v>33</v>
       </c>
       <c r="AA55">
-        <v>33</v>
-      </c>
-      <c r="AB55">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E56">
         <v>1.72272</v>
@@ -6306,33 +6171,30 @@
         <v>55.9</v>
       </c>
       <c r="X56">
-        <v>50.4</v>
+        <v>10.8</v>
       </c>
       <c r="Y56">
-        <v>61.2</v>
+        <v>3.24427464171957</v>
       </c>
       <c r="Z56">
-        <v>3.24427464171957</v>
+        <v>99</v>
       </c>
       <c r="AA56">
         <v>99</v>
       </c>
-      <c r="AB56">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E57">
         <v>5.4925</v>
@@ -6392,33 +6254,30 @@
         <v>4.4</v>
       </c>
       <c r="X57">
-        <v>3.9</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Y57">
-        <v>4.8</v>
+        <v>-0.00820763220716739</v>
       </c>
       <c r="Z57">
-        <v>-0.00820763220716739</v>
+        <v>94</v>
       </c>
       <c r="AA57">
-        <v>94</v>
-      </c>
-      <c r="AB57">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E58">
         <v>2.88234</v>
@@ -6478,30 +6337,27 @@
         <v>76.2</v>
       </c>
       <c r="X58">
-        <v>69.5</v>
+        <v>13</v>
       </c>
       <c r="Y58">
-        <v>82.5</v>
+        <v>2.62587704641773</v>
       </c>
       <c r="Z58">
-        <v>2.62587704641773</v>
+        <v>63</v>
       </c>
       <c r="AA58">
-        <v>63</v>
-      </c>
-      <c r="AB58">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D59" t="s">
         <v>415</v>
@@ -6564,33 +6420,30 @@
         <v>22.7</v>
       </c>
       <c r="X59">
-        <v>20.1</v>
+        <v>5.099999999999998</v>
       </c>
       <c r="Y59">
-        <v>25.2</v>
+        <v>0.943360266587159</v>
       </c>
       <c r="Z59">
-        <v>0.943360266587159</v>
+        <v>99</v>
       </c>
       <c r="AA59">
         <v>99</v>
       </c>
-      <c r="AB59">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28">
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E60">
         <v>6.28978</v>
@@ -6650,33 +6503,30 @@
         <v>3.1</v>
       </c>
       <c r="X60">
-        <v>2.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y60">
-        <v>3.4</v>
+        <v>0.457494535465831</v>
       </c>
       <c r="Z60">
-        <v>0.457494535465831</v>
+        <v>99</v>
       </c>
       <c r="AA60">
-        <v>99</v>
-      </c>
-      <c r="AB60">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E61">
         <v>5.26575</v>
@@ -6736,33 +6586,30 @@
         <v>4.3</v>
       </c>
       <c r="X61">
-        <v>3.8</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="Y61">
-        <v>4.7</v>
+        <v>0.506134561624645</v>
       </c>
       <c r="Z61">
-        <v>0.506134561624645</v>
+        <v>99</v>
       </c>
       <c r="AA61">
-        <v>99</v>
-      </c>
-      <c r="AB61">
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E62">
         <v>3.06321</v>
@@ -6822,33 +6669,30 @@
         <v>67.2</v>
       </c>
       <c r="X62">
-        <v>61.7</v>
+        <v>10.89999999999999</v>
       </c>
       <c r="Y62">
-        <v>72.59999999999999</v>
+        <v>2.41068298769995</v>
       </c>
       <c r="Z62">
-        <v>2.41068298769995</v>
+        <v>67</v>
       </c>
       <c r="AA62">
-        <v>67</v>
-      </c>
-      <c r="AB62">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E63">
         <v>3.09914</v>
@@ -6908,33 +6752,30 @@
         <v>78.2</v>
       </c>
       <c r="X63">
-        <v>73.09999999999999</v>
+        <v>9.900000000000006</v>
       </c>
       <c r="Y63">
-        <v>83</v>
+        <v>3.16184952590466</v>
       </c>
       <c r="Z63">
-        <v>3.16184952590466</v>
+        <v>97</v>
       </c>
       <c r="AA63">
-        <v>97</v>
-      </c>
-      <c r="AB63">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E64">
         <v>2.79289</v>
@@ -6994,33 +6835,30 @@
         <v>21.5</v>
       </c>
       <c r="X64">
-        <v>18.6</v>
+        <v>5.599999999999998</v>
       </c>
       <c r="Y64">
-        <v>24.2</v>
+        <v>0.945436151990522</v>
       </c>
       <c r="Z64">
-        <v>0.945436151990522</v>
+        <v>91</v>
       </c>
       <c r="AA64">
-        <v>91</v>
-      </c>
-      <c r="AB64">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E65">
         <v>4.39411</v>
@@ -7080,33 +6918,30 @@
         <v>4.2</v>
       </c>
       <c r="X65">
-        <v>3.8</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="Y65">
-        <v>4.6</v>
+        <v>-0.153198446937304</v>
       </c>
       <c r="Z65">
-        <v>-0.153198446937304</v>
+        <v>93</v>
       </c>
       <c r="AA65">
-        <v>93</v>
-      </c>
-      <c r="AB65">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E66">
         <v>4.65696</v>
@@ -7166,33 +7001,30 @@
         <v>76.40000000000001</v>
       </c>
       <c r="X66">
-        <v>70.7</v>
+        <v>11.2</v>
       </c>
       <c r="Y66">
-        <v>81.90000000000001</v>
+        <v>2.3830748996165</v>
       </c>
       <c r="Z66">
-        <v>2.3830748996165</v>
+        <v>94</v>
       </c>
       <c r="AA66">
-        <v>94</v>
-      </c>
-      <c r="AB66">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E67">
         <v>3.24716</v>
@@ -7252,30 +7084,30 @@
         <v>4.7</v>
       </c>
       <c r="X67">
-        <v>4.4</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="Y67">
-        <v>5.1</v>
+        <v>0.219050225210255</v>
       </c>
       <c r="Z67">
-        <v>0.219050225210255</v>
+        <v>99</v>
       </c>
       <c r="AA67">
         <v>99</v>
       </c>
-      <c r="AB67">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="D68" t="s">
+        <v>413</v>
       </c>
       <c r="E68">
         <v>3.75304</v>
@@ -7335,30 +7167,30 @@
         <v>14</v>
       </c>
       <c r="X68">
-        <v>12.9</v>
+        <v>2.299999999999999</v>
       </c>
       <c r="Y68">
-        <v>15.2</v>
+        <v>0.364640812121368</v>
       </c>
       <c r="Z68">
-        <v>0.364640812121368</v>
+        <v>97</v>
       </c>
       <c r="AA68">
-        <v>97</v>
-      </c>
-      <c r="AB68">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="D69" t="s">
+        <v>413</v>
       </c>
       <c r="E69">
         <v>2.89353</v>
@@ -7418,33 +7250,30 @@
         <v>34.3</v>
       </c>
       <c r="X69">
-        <v>30.7</v>
+        <v>7.000000000000004</v>
       </c>
       <c r="Y69">
-        <v>37.7</v>
+        <v>2.48922828265719</v>
       </c>
       <c r="Z69">
-        <v>2.48922828265719</v>
+        <v>94</v>
       </c>
       <c r="AA69">
-        <v>94</v>
-      </c>
-      <c r="AB69">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E70">
         <v>2.31043</v>
@@ -7504,33 +7333,30 @@
         <v>109.5</v>
       </c>
       <c r="X70">
-        <v>104.3</v>
+        <v>10.2</v>
       </c>
       <c r="Y70">
-        <v>114.5</v>
+        <v>2.63447439420995</v>
       </c>
       <c r="Z70">
-        <v>2.63447439420995</v>
+        <v>64</v>
       </c>
       <c r="AA70">
-        <v>64</v>
-      </c>
-      <c r="AB70">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71">
         <v>2.28879</v>
@@ -7590,30 +7416,27 @@
         <v>137.1</v>
       </c>
       <c r="X71">
-        <v>126.6</v>
+        <v>20.5</v>
       </c>
       <c r="Y71">
-        <v>147.1</v>
+        <v>2.27698569447907</v>
       </c>
       <c r="Z71">
-        <v>2.27698569447907</v>
+        <v>80</v>
       </c>
       <c r="AA71">
-        <v>80</v>
-      </c>
-      <c r="AB71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D72" t="s">
         <v>414</v>
@@ -7676,30 +7499,30 @@
         <v>37.3</v>
       </c>
       <c r="X72">
-        <v>32.3</v>
+        <v>9.800000000000004</v>
       </c>
       <c r="Y72">
-        <v>42.1</v>
+        <v>0.647151502984246</v>
       </c>
       <c r="Z72">
-        <v>0.647151502984246</v>
+        <v>95</v>
       </c>
       <c r="AA72">
         <v>95</v>
       </c>
-      <c r="AB72">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28">
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="D73" t="s">
+        <v>413</v>
       </c>
       <c r="E73">
         <v>1.46165201</v>
@@ -7759,30 +7582,30 @@
         <v>175.1</v>
       </c>
       <c r="X73">
-        <v>165.8</v>
+        <v>17.79999999999998</v>
       </c>
       <c r="Y73">
-        <v>183.6</v>
+        <v>1.33508222365108</v>
       </c>
       <c r="Z73">
-        <v>1.33508222365108</v>
+        <v>60</v>
       </c>
       <c r="AA73">
-        <v>60</v>
-      </c>
-      <c r="AB73">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="D74" t="s">
+        <v>413</v>
       </c>
       <c r="E74">
         <v>3.5462322053</v>
@@ -7842,33 +7665,30 @@
         <v>24.7</v>
       </c>
       <c r="X74">
-        <v>21.7</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="Y74">
-        <v>27.5</v>
+        <v>2.00602470738586</v>
       </c>
       <c r="Z74">
-        <v>2.00602470738586</v>
+        <v>95</v>
       </c>
       <c r="AA74">
-        <v>95</v>
-      </c>
-      <c r="AB74">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E75">
         <v>4.93549</v>
@@ -7928,33 +7748,30 @@
         <v>6.5</v>
       </c>
       <c r="X75">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="Y75">
-        <v>7.1</v>
+        <v>-0.226013875689698</v>
       </c>
       <c r="Z75">
-        <v>-0.226013875689698</v>
+        <v>99</v>
       </c>
       <c r="AA75">
         <v>99</v>
       </c>
-      <c r="AB75">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E76">
         <v>8.96195</v>
@@ -8014,33 +7831,30 @@
         <v>2.5</v>
       </c>
       <c r="X76">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="Y76">
-        <v>2.7</v>
+        <v>-0.143903000294037</v>
       </c>
       <c r="Z76">
-        <v>-0.143903000294037</v>
+        <v>96</v>
       </c>
       <c r="AA76">
-        <v>96</v>
-      </c>
-      <c r="AB76">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E77">
         <v>3.08236</v>
@@ -8100,33 +7914,30 @@
         <v>61.2</v>
       </c>
       <c r="X77">
-        <v>64.3</v>
+        <v>-6</v>
       </c>
       <c r="Y77">
-        <v>58.3</v>
+        <v>1.2928487950186</v>
       </c>
       <c r="Z77">
-        <v>1.2928487950186</v>
+        <v>72</v>
       </c>
       <c r="AA77">
-        <v>72</v>
-      </c>
-      <c r="AB77">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D78" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E78">
         <v>2.72764</v>
@@ -8186,33 +7997,30 @@
         <v>33.6</v>
       </c>
       <c r="X78">
-        <v>29.6</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="Y78">
-        <v>37.5</v>
+        <v>1.33412069973034</v>
       </c>
       <c r="Z78">
-        <v>1.33412069973034</v>
+        <v>62</v>
       </c>
       <c r="AA78">
-        <v>62</v>
-      </c>
-      <c r="AB78">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D79" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E79">
         <v>4.11034</v>
@@ -8260,33 +8068,30 @@
         <v>19.2</v>
       </c>
       <c r="X79">
-        <v>18.2</v>
+        <v>2</v>
       </c>
       <c r="Y79">
-        <v>20.2</v>
+        <v>1.24235013679497</v>
       </c>
       <c r="Z79">
-        <v>1.24235013679497</v>
+        <v>99</v>
       </c>
       <c r="AA79">
         <v>99</v>
       </c>
-      <c r="AB79">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F80">
         <v>70.84099999999999</v>
@@ -8343,33 +8148,30 @@
         <v>36.2</v>
       </c>
       <c r="X80">
-        <v>32.8</v>
+        <v>6.700000000000003</v>
       </c>
       <c r="Y80">
-        <v>39.5</v>
+        <v>2.64952334797115</v>
       </c>
       <c r="Z80">
-        <v>2.64952334797115</v>
+        <v>74</v>
       </c>
       <c r="AA80">
-        <v>74</v>
-      </c>
-      <c r="AB80">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E81">
         <v>5.94543</v>
@@ -8429,33 +8231,30 @@
         <v>4.2</v>
       </c>
       <c r="X81">
-        <v>3.8</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="Y81">
-        <v>4.6</v>
+        <v>0.345091259618726</v>
       </c>
       <c r="Z81">
-        <v>0.345091259618726</v>
+        <v>94</v>
       </c>
       <c r="AA81">
-        <v>94</v>
-      </c>
-      <c r="AB81">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E82">
         <v>5.63831</v>
@@ -8515,33 +8314,30 @@
         <v>4.5</v>
       </c>
       <c r="X82">
-        <v>4.2</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="Y82">
-        <v>4.8</v>
+        <v>1.82675240987847</v>
       </c>
       <c r="Z82">
-        <v>1.82675240987847</v>
+        <v>94</v>
       </c>
       <c r="AA82">
-        <v>94</v>
-      </c>
-      <c r="AB82">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E83">
         <v>4.43318</v>
@@ -8601,30 +8397,30 @@
         <v>4</v>
       </c>
       <c r="X83">
-        <v>3.6</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="Y83">
-        <v>4.3</v>
+        <v>0.481764994362398</v>
       </c>
       <c r="Z83">
-        <v>0.481764994362398</v>
+        <v>96</v>
       </c>
       <c r="AA83">
-        <v>96</v>
-      </c>
-      <c r="AB83">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>413</v>
       </c>
       <c r="E84">
         <v>5.76796</v>
@@ -8678,33 +8474,30 @@
         <v>17.8</v>
       </c>
       <c r="X84">
-        <v>15.4</v>
+        <v>4.700000000000001</v>
       </c>
       <c r="Y84">
-        <v>20.1</v>
+        <v>0.207530462862484</v>
       </c>
       <c r="Z84">
-        <v>0.207530462862484</v>
+        <v>99</v>
       </c>
       <c r="AA84">
-        <v>99</v>
-      </c>
-      <c r="AB84">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D85" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E85">
         <v>3.1851582838</v>
@@ -8764,33 +8557,30 @@
         <v>3.2</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y85">
-        <v>3.4</v>
+        <v>-0.08431016327410749</v>
       </c>
       <c r="Z85">
-        <v>-0.08431016327410749</v>
+        <v>98</v>
       </c>
       <c r="AA85">
-        <v>98</v>
-      </c>
-      <c r="AB85">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E86">
         <v>5.6101578361</v>
@@ -8850,33 +8640,30 @@
         <v>20.3</v>
       </c>
       <c r="X86">
-        <v>19.2</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="Y86">
-        <v>21.4</v>
+        <v>2.19053989269163</v>
       </c>
       <c r="Z86">
-        <v>2.19053989269163</v>
+        <v>98</v>
       </c>
       <c r="AA86">
         <v>98</v>
       </c>
-      <c r="AB86">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28">
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E87">
         <v>4.4133976385</v>
@@ -8936,33 +8723,30 @@
         <v>21.9</v>
       </c>
       <c r="X87">
-        <v>18.5</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="Y87">
-        <v>25.2</v>
+        <v>1.41784554083408</v>
       </c>
       <c r="Z87">
-        <v>1.41784554083408</v>
+        <v>99</v>
       </c>
       <c r="AA87">
         <v>99</v>
       </c>
-      <c r="AB87">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28">
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" s="1">
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E88">
         <v>5.91597</v>
@@ -9022,30 +8806,27 @@
         <v>79</v>
       </c>
       <c r="X88">
-        <v>73.90000000000001</v>
+        <v>9.899999999999991</v>
       </c>
       <c r="Y88">
-        <v>83.8</v>
+        <v>2.68666534106081</v>
       </c>
       <c r="Z88">
-        <v>2.68666534106081</v>
+        <v>83</v>
       </c>
       <c r="AA88">
-        <v>83</v>
-      </c>
-      <c r="AB88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:27">
       <c r="A89" s="1">
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D89" t="s">
         <v>415</v>
@@ -9105,33 +8886,30 @@
         <v>62.8</v>
       </c>
       <c r="X89">
-        <v>57.6</v>
+        <v>9.999999999999993</v>
       </c>
       <c r="Y89">
-        <v>67.59999999999999</v>
+        <v>1.51640665700739</v>
       </c>
       <c r="Z89">
-        <v>1.51640665700739</v>
+        <v>91</v>
       </c>
       <c r="AA89">
-        <v>91</v>
-      </c>
-      <c r="AB89">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:27">
       <c r="A90" s="1">
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F90">
         <v>0.6392</v>
@@ -9167,33 +8945,30 @@
         <v>31.4</v>
       </c>
       <c r="X90">
-        <v>28.1</v>
+        <v>6.5</v>
       </c>
       <c r="Y90">
-        <v>34.6</v>
+        <v>0.526494858761329</v>
       </c>
       <c r="Z90">
-        <v>0.526494858761329</v>
+        <v>93</v>
       </c>
       <c r="AA90">
-        <v>93</v>
-      </c>
-      <c r="AB90">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:27">
       <c r="A91" s="1">
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E91">
         <v>4.21603</v>
@@ -9253,33 +9028,30 @@
         <v>4.1</v>
       </c>
       <c r="X91">
-        <v>3.8</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="Y91">
-        <v>4.4</v>
+        <v>0.462512995871007</v>
       </c>
       <c r="Z91">
-        <v>0.462512995871007</v>
+        <v>94</v>
       </c>
       <c r="AA91">
-        <v>94</v>
-      </c>
-      <c r="AB91">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:27">
       <c r="A92" s="1">
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E92">
         <v>3.18568</v>
@@ -9339,33 +9111,30 @@
         <v>11.2</v>
       </c>
       <c r="X92">
-        <v>10.3</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="Y92">
-        <v>12.1</v>
+        <v>4.84468928134661</v>
       </c>
       <c r="Z92">
-        <v>4.84468928134661</v>
+        <v>98</v>
       </c>
       <c r="AA92">
         <v>98</v>
       </c>
-      <c r="AB92">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28">
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" s="1">
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E93">
         <v>5.95653</v>
@@ -9425,33 +9194,30 @@
         <v>30.5</v>
       </c>
       <c r="X93">
-        <v>26.7</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="Y93">
-        <v>34</v>
+        <v>1.19286442880631</v>
       </c>
       <c r="Z93">
-        <v>1.19286442880631</v>
+        <v>96</v>
       </c>
       <c r="AA93">
-        <v>96</v>
-      </c>
-      <c r="AB93">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:27">
       <c r="A94" s="1">
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E94">
         <v>1.05939</v>
@@ -9511,33 +9277,30 @@
         <v>78.40000000000001</v>
       </c>
       <c r="X94">
-        <v>72.90000000000001</v>
+        <v>10.59999999999999</v>
       </c>
       <c r="Y94">
-        <v>83.5</v>
+        <v>2.01757029860699</v>
       </c>
       <c r="Z94">
-        <v>2.01757029860699</v>
+        <v>74</v>
       </c>
       <c r="AA94">
-        <v>74</v>
-      </c>
-      <c r="AB94">
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:27">
       <c r="A95" s="1">
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E95">
         <v>5.5734780813</v>
@@ -9597,33 +9360,30 @@
         <v>9.4</v>
       </c>
       <c r="X95">
-        <v>8.5</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="Y95">
-        <v>10.2</v>
+        <v>-0.704344542039101</v>
       </c>
       <c r="Z95">
-        <v>-0.704344542039101</v>
+        <v>91</v>
       </c>
       <c r="AA95">
-        <v>91</v>
-      </c>
-      <c r="AB95">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:27">
       <c r="A96" s="1">
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E96">
         <v>1.58805</v>
@@ -9683,33 +9443,30 @@
         <v>10.2</v>
       </c>
       <c r="X96">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="Y96">
-        <v>10.6</v>
+        <v>2.19309731799995</v>
       </c>
       <c r="Z96">
-        <v>2.19309731799995</v>
+        <v>81</v>
       </c>
       <c r="AA96">
-        <v>81</v>
-      </c>
-      <c r="AB96">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:27">
       <c r="A97" s="1">
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E97">
         <v>9.74033</v>
@@ -9769,33 +9526,30 @@
         <v>108.4</v>
       </c>
       <c r="X97">
-        <v>100.9</v>
+        <v>14.39999999999999</v>
       </c>
       <c r="Y97">
-        <v>115.3</v>
+        <v>0.952694440893599</v>
       </c>
       <c r="Z97">
-        <v>0.952694440893599</v>
+        <v>83</v>
       </c>
       <c r="AA97">
-        <v>83</v>
-      </c>
-      <c r="AB97">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:27">
       <c r="A98" s="1">
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E98">
         <v>3.08376</v>
@@ -9855,33 +9609,30 @@
         <v>82.5</v>
       </c>
       <c r="X98">
-        <v>76.5</v>
+        <v>11.59999999999999</v>
       </c>
       <c r="Y98">
-        <v>88.09999999999999</v>
+        <v>3.51090057121966</v>
       </c>
       <c r="Z98">
-        <v>3.51090057121966</v>
+        <v>70</v>
       </c>
       <c r="AA98">
-        <v>70</v>
-      </c>
-      <c r="AB98">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:27">
       <c r="A99" s="1">
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D99" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F99">
         <v>2.7546</v>
@@ -9926,33 +9677,30 @@
         <v>16.9</v>
       </c>
       <c r="X99">
-        <v>15</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="Y99">
-        <v>18.6</v>
+        <v>1.27094422708487</v>
       </c>
       <c r="Z99">
-        <v>1.27094422708487</v>
+        <v>98</v>
       </c>
       <c r="AA99">
         <v>98</v>
       </c>
-      <c r="AB99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28">
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" s="1">
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E100">
         <v>5.39184</v>
@@ -10012,33 +9760,30 @@
         <v>6.8</v>
       </c>
       <c r="X100">
-        <v>6.1</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="Y100">
-        <v>7.4</v>
+        <v>-1.58873874694342</v>
       </c>
       <c r="Z100">
-        <v>-1.58873874694342</v>
+        <v>95</v>
       </c>
       <c r="AA100">
-        <v>95</v>
-      </c>
-      <c r="AB100">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:27">
       <c r="A101" s="1">
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E101">
         <v>3.52779</v>
@@ -10098,33 +9843,30 @@
         <v>2.5</v>
       </c>
       <c r="X101">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="Y101">
-        <v>2.7</v>
+        <v>1.8254058035237</v>
       </c>
       <c r="Z101">
-        <v>1.8254058035237</v>
+        <v>99</v>
       </c>
       <c r="AA101">
-        <v>99</v>
-      </c>
-      <c r="AB101">
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:27">
       <c r="A102" s="1">
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D102" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E102">
         <v>4.9026265882</v>
@@ -10184,33 +9926,30 @@
         <v>9.9</v>
       </c>
       <c r="X102">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="Y102">
-        <v>10.6</v>
+        <v>0.078900273296267</v>
       </c>
       <c r="Z102">
-        <v>0.078900273296267</v>
+        <v>95</v>
       </c>
       <c r="AA102">
-        <v>95</v>
-      </c>
-      <c r="AB102">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:27">
       <c r="A103" s="1">
         <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E103">
         <v>2.65872</v>
@@ -10270,33 +10009,30 @@
         <v>62.9</v>
       </c>
       <c r="X103">
-        <v>58.6</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="Y103">
-        <v>67.2</v>
+        <v>2.80876581969178</v>
       </c>
       <c r="Z103">
-        <v>2.80876581969178</v>
+        <v>85</v>
       </c>
       <c r="AA103">
-        <v>85</v>
-      </c>
-      <c r="AB103">
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:27">
       <c r="A104" s="1">
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E104">
         <v>4.39173</v>
@@ -10356,33 +10092,30 @@
         <v>82.90000000000001</v>
       </c>
       <c r="X104">
-        <v>77.8</v>
+        <v>10</v>
       </c>
       <c r="Y104">
-        <v>87.8</v>
+        <v>2.97690231056056</v>
       </c>
       <c r="Z104">
-        <v>2.97690231056056</v>
+        <v>93</v>
       </c>
       <c r="AA104">
         <v>93</v>
       </c>
-      <c r="AB104">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28">
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" s="1">
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E105">
         <v>4.14536</v>
@@ -10442,33 +10175,30 @@
         <v>8.4</v>
       </c>
       <c r="X105">
-        <v>7.6</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="Y105">
-        <v>9.300000000000001</v>
+        <v>1.73196503977479</v>
       </c>
       <c r="Z105">
-        <v>1.73196503977479</v>
+        <v>94</v>
       </c>
       <c r="AA105">
-        <v>94</v>
-      </c>
-      <c r="AB105">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:27">
       <c r="A106" s="1">
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D106" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E106">
         <v>5.04299</v>
@@ -10528,33 +10258,30 @@
         <v>13</v>
       </c>
       <c r="X106">
-        <v>11.6</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="Y106">
-        <v>14.4</v>
+        <v>1.87003593113879</v>
       </c>
       <c r="Z106">
-        <v>1.87003593113879</v>
+        <v>96</v>
       </c>
       <c r="AA106">
-        <v>96</v>
-      </c>
-      <c r="AB106">
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:27">
       <c r="A107" s="1">
         <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D107" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E107">
         <v>3.88913</v>
@@ -10614,33 +10341,30 @@
         <v>137.8</v>
       </c>
       <c r="X107">
-        <v>131.6</v>
+        <v>12.20000000000002</v>
       </c>
       <c r="Y107">
-        <v>143.8</v>
+        <v>3.0981677014634</v>
       </c>
       <c r="Z107">
-        <v>3.0981677014634</v>
+        <v>76</v>
       </c>
       <c r="AA107">
-        <v>76</v>
-      </c>
-      <c r="AB107">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:27">
       <c r="A108" s="1">
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E108">
         <v>5.61982</v>
@@ -10700,30 +10424,27 @@
         <v>6.9</v>
       </c>
       <c r="X108">
-        <v>6.3</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="Y108">
-        <v>7.4</v>
+        <v>0.482900649968124</v>
       </c>
       <c r="Z108">
-        <v>0.482900649968124</v>
+        <v>76</v>
       </c>
       <c r="AA108">
-        <v>76</v>
-      </c>
-      <c r="AB108">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:27">
       <c r="A109" s="1">
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
         <v>415</v>
@@ -10759,33 +10480,30 @@
         <v>38.8</v>
       </c>
       <c r="X109">
-        <v>34</v>
+        <v>9.200000000000003</v>
       </c>
       <c r="Y109">
-        <v>43.2</v>
+        <v>0.166079699142455</v>
       </c>
       <c r="Z109">
-        <v>0.166079699142455</v>
+        <v>94</v>
       </c>
       <c r="AA109">
-        <v>94</v>
-      </c>
-      <c r="AB109">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:27">
       <c r="A110" s="1">
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E110">
         <v>3.83073</v>
@@ -10845,33 +10563,30 @@
         <v>89.09999999999999</v>
       </c>
       <c r="X110">
-        <v>80.59999999999999</v>
+        <v>16.60000000000001</v>
       </c>
       <c r="Y110">
-        <v>97.2</v>
+        <v>2.62012151475042</v>
       </c>
       <c r="Z110">
-        <v>2.62012151475042</v>
+        <v>64</v>
       </c>
       <c r="AA110">
-        <v>64</v>
-      </c>
-      <c r="AB110">
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:27">
       <c r="A111" s="1">
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D111" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E111">
         <v>3.08405</v>
@@ -10931,30 +10646,30 @@
         <v>14.9</v>
       </c>
       <c r="X111">
-        <v>13.2</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="Y111">
-        <v>16.6</v>
+        <v>0.461041617043606</v>
       </c>
       <c r="Z111">
-        <v>0.461041617043606</v>
+        <v>99</v>
       </c>
       <c r="AA111">
         <v>99</v>
       </c>
-      <c r="AB111">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28">
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" s="1">
         <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="D112" t="s">
+        <v>413</v>
       </c>
       <c r="E112">
         <v>5.15991</v>
@@ -11014,30 +10729,27 @@
         <v>17.1</v>
       </c>
       <c r="X112">
-        <v>15.4</v>
+        <v>3.4</v>
       </c>
       <c r="Y112">
-        <v>18.8</v>
+        <v>1.24935027132475</v>
       </c>
       <c r="Z112">
-        <v>1.24935027132475</v>
+        <v>95</v>
       </c>
       <c r="AA112">
         <v>95</v>
       </c>
-      <c r="AB112">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28">
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" s="1">
         <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
         <v>415</v>
@@ -11097,33 +10809,30 @@
         <v>40.8</v>
       </c>
       <c r="X113">
-        <v>36.6</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="Y113">
-        <v>44.7</v>
+        <v>-0.350671354813665</v>
       </c>
       <c r="Z113">
-        <v>-0.350671354813665</v>
+        <v>85</v>
       </c>
       <c r="AA113">
-        <v>85</v>
-      </c>
-      <c r="AB113">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:27">
       <c r="A114" s="1">
         <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D114" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E114">
         <v>7.73793</v>
@@ -11183,33 +10892,30 @@
         <v>18.8</v>
       </c>
       <c r="X114">
-        <v>16.6</v>
+        <v>4.299999999999997</v>
       </c>
       <c r="Y114">
-        <v>20.9</v>
+        <v>-0.0993593355275468</v>
       </c>
       <c r="Z114">
-        <v>-0.0993593355275468</v>
+        <v>90</v>
       </c>
       <c r="AA114">
-        <v>90</v>
-      </c>
-      <c r="AB114">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:27">
       <c r="A115" s="1">
         <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E115">
         <v>1.17233</v>
@@ -11230,33 +10936,30 @@
         <v>4</v>
       </c>
       <c r="X115">
-        <v>3.6</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="Y115">
-        <v>4.3</v>
+        <v>1.45165823704873</v>
       </c>
       <c r="Z115">
-        <v>1.45165823704873</v>
+        <v>99</v>
       </c>
       <c r="AA115">
         <v>99</v>
       </c>
-      <c r="AB115">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28">
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" s="1">
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D116" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E116">
         <v>5.09384</v>
@@ -11316,33 +11019,30 @@
         <v>30.2</v>
       </c>
       <c r="X116">
-        <v>24.2</v>
+        <v>11.6</v>
       </c>
       <c r="Y116">
-        <v>35.8</v>
+        <v>1.50477466771639</v>
       </c>
       <c r="Z116">
-        <v>1.50477466771639</v>
+        <v>96</v>
       </c>
       <c r="AA116">
-        <v>96</v>
-      </c>
-      <c r="AB116">
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:27">
       <c r="A117" s="1">
         <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F117">
         <v>16.5508</v>
@@ -11399,33 +11099,30 @@
         <v>6.9</v>
       </c>
       <c r="X117">
-        <v>6.5</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="Y117">
-        <v>7.3</v>
+        <v>0.108109339719195</v>
       </c>
       <c r="Z117">
-        <v>0.108109339719195</v>
+        <v>94</v>
       </c>
       <c r="AA117">
-        <v>94</v>
-      </c>
-      <c r="AB117">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:27">
       <c r="A118" s="1">
         <v>131</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E118">
         <v>5.20098</v>
@@ -11485,33 +11182,30 @@
         <v>33.5</v>
       </c>
       <c r="X118">
-        <v>29.9</v>
+        <v>7</v>
       </c>
       <c r="Y118">
-        <v>36.9</v>
+        <v>1.16276661492869</v>
       </c>
       <c r="Z118">
-        <v>1.16276661492869</v>
+        <v>99</v>
       </c>
       <c r="AA118">
-        <v>99</v>
-      </c>
-      <c r="AB118">
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:27">
       <c r="A119" s="1">
         <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E119">
         <v>4.01833</v>
@@ -11571,33 +11265,30 @@
         <v>101.3</v>
       </c>
       <c r="X119">
-        <v>96.2</v>
+        <v>10</v>
       </c>
       <c r="Y119">
-        <v>106.2</v>
+        <v>2.56199055546967</v>
       </c>
       <c r="Z119">
-        <v>2.56199055546967</v>
+        <v>74</v>
       </c>
       <c r="AA119">
-        <v>74</v>
-      </c>
-      <c r="AB119">
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:27">
       <c r="A120" s="1">
         <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E120">
         <v>0.83706</v>
@@ -11645,33 +11336,30 @@
         <v>56</v>
       </c>
       <c r="X120">
-        <v>50.5</v>
+        <v>10.8</v>
       </c>
       <c r="Y120">
-        <v>61.3</v>
+        <v>0.755265020483578</v>
       </c>
       <c r="Z120">
-        <v>0.755265020483578</v>
+        <v>90</v>
       </c>
       <c r="AA120">
-        <v>90</v>
-      </c>
-      <c r="AB120">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:27">
       <c r="A121" s="1">
         <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D121" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E121">
         <v>7.96808</v>
@@ -11731,33 +11419,30 @@
         <v>45.3</v>
       </c>
       <c r="X121">
-        <v>41</v>
+        <v>8.299999999999997</v>
       </c>
       <c r="Y121">
-        <v>49.3</v>
+        <v>1.64118372840351</v>
       </c>
       <c r="Z121">
-        <v>1.64118372840351</v>
+        <v>83</v>
       </c>
       <c r="AA121">
-        <v>83</v>
-      </c>
-      <c r="AB121">
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:27">
       <c r="A122" s="1">
         <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D122" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E122">
         <v>4.20249</v>
@@ -11817,33 +11502,30 @@
         <v>45.5</v>
       </c>
       <c r="X122">
-        <v>42.9</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="Y122">
-        <v>48</v>
+        <v>1.12781713209342</v>
       </c>
       <c r="Z122">
-        <v>1.12781713209342</v>
+        <v>82</v>
       </c>
       <c r="AA122">
-        <v>82</v>
-      </c>
-      <c r="AB122">
         <v>86</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:27">
       <c r="A123" s="1">
         <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D123" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E123">
         <v>4.7358038381</v>
@@ -11903,30 +11585,27 @@
         <v>4.4</v>
       </c>
       <c r="X123">
-        <v>3.9</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Y123">
-        <v>4.8</v>
+        <v>0.512923100553586</v>
       </c>
       <c r="Z123">
-        <v>0.512923100553586</v>
+        <v>97</v>
       </c>
       <c r="AA123">
-        <v>97</v>
-      </c>
-      <c r="AB123">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:27">
       <c r="A124" s="1">
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D124" t="s">
         <v>415</v>
@@ -11989,30 +11668,30 @@
         <v>6</v>
       </c>
       <c r="X124">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="Y124">
-        <v>6.6</v>
+        <v>1.19767427293062</v>
       </c>
       <c r="Z124">
-        <v>1.19767427293062</v>
+        <v>93</v>
       </c>
       <c r="AA124">
-        <v>93</v>
-      </c>
-      <c r="AB124">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:27">
       <c r="A125" s="1">
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="D125" t="s">
+        <v>413</v>
       </c>
       <c r="E125">
         <v>2.96455</v>
@@ -12072,33 +11751,30 @@
         <v>26.1</v>
       </c>
       <c r="X125">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Y125">
-        <v>29</v>
+        <v>1.36407356223566</v>
       </c>
       <c r="Z125">
-        <v>1.36407356223566</v>
+        <v>98</v>
       </c>
       <c r="AA125">
-        <v>98</v>
-      </c>
-      <c r="AB125">
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:27">
       <c r="A126" s="1">
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E126">
         <v>3.5156</v>
@@ -12158,33 +11834,30 @@
         <v>126.6</v>
       </c>
       <c r="X126">
-        <v>122.9</v>
+        <v>7.199999999999989</v>
       </c>
       <c r="Y126">
-        <v>130.1</v>
+        <v>3.78802089404114</v>
       </c>
       <c r="Z126">
-        <v>3.78802089404114</v>
+        <v>70</v>
       </c>
       <c r="AA126">
-        <v>70</v>
-      </c>
-      <c r="AB126">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:27">
       <c r="A127" s="1">
         <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D127" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E127">
         <v>0.85</v>
@@ -12244,33 +11917,30 @@
         <v>132.4</v>
       </c>
       <c r="X127">
-        <v>126.4</v>
+        <v>11.59999999999999</v>
       </c>
       <c r="Y127">
-        <v>138</v>
+        <v>2.74654763253572</v>
       </c>
       <c r="Z127">
-        <v>2.74654763253572</v>
+        <v>54</v>
       </c>
       <c r="AA127">
-        <v>54</v>
-      </c>
-      <c r="AB127">
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:27">
       <c r="A128" s="1">
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D128" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E128">
         <v>6.58019</v>
@@ -12330,33 +12000,30 @@
         <v>3.1</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="Y128">
-        <v>3.5</v>
+        <v>1.24566617956207</v>
       </c>
       <c r="Z128">
-        <v>1.24566617956207</v>
+        <v>93</v>
       </c>
       <c r="AA128">
         <v>93</v>
       </c>
-      <c r="AB128">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28">
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" s="1">
         <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D129" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E129">
         <v>4.20754</v>
@@ -12416,33 +12083,30 @@
         <v>11.9</v>
       </c>
       <c r="X129">
-        <v>10.7</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
-        <v>13.1</v>
+        <v>5.10700813414887</v>
       </c>
       <c r="Z129">
-        <v>5.10700813414887</v>
+        <v>99</v>
       </c>
       <c r="AA129">
         <v>99</v>
       </c>
-      <c r="AB129">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28">
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" s="1">
         <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C130" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D130" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E130">
         <v>1.56468</v>
@@ -12502,30 +12166,27 @@
         <v>90</v>
       </c>
       <c r="X130">
-        <v>86.2</v>
+        <v>7.5</v>
       </c>
       <c r="Y130">
-        <v>93.7</v>
+        <v>1.78030432229361</v>
       </c>
       <c r="Z130">
-        <v>1.78030432229361</v>
+        <v>86</v>
       </c>
       <c r="AA130">
-        <v>86</v>
-      </c>
-      <c r="AB130">
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:27">
       <c r="A131" s="1">
         <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D131" t="s">
         <v>415</v>
@@ -12561,30 +12222,30 @@
         <v>22</v>
       </c>
       <c r="X131">
-        <v>19.8</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="Y131">
-        <v>24.2</v>
+        <v>0.617437155337947</v>
       </c>
       <c r="Z131">
-        <v>0.617437155337947</v>
+        <v>69</v>
       </c>
       <c r="AA131">
-        <v>69</v>
-      </c>
-      <c r="AB131">
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:27">
       <c r="A132" s="1">
         <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="D132" t="s">
+        <v>413</v>
       </c>
       <c r="E132">
         <v>3.53283</v>
@@ -12644,30 +12305,27 @@
         <v>19.7</v>
       </c>
       <c r="X132">
-        <v>17.4</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="Y132">
-        <v>21.8</v>
+        <v>1.70780739716979</v>
       </c>
       <c r="Z132">
-        <v>1.70780739716979</v>
+        <v>94</v>
       </c>
       <c r="AA132">
-        <v>94</v>
-      </c>
-      <c r="AB132">
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:27">
       <c r="A133" s="1">
         <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D133" t="s">
         <v>415</v>
@@ -12727,30 +12385,27 @@
         <v>66.59999999999999</v>
       </c>
       <c r="X133">
-        <v>61.4</v>
+        <v>10.00000000000001</v>
       </c>
       <c r="Y133">
-        <v>71.40000000000001</v>
+        <v>2.27256267707012</v>
       </c>
       <c r="Z133">
-        <v>2.27256267707012</v>
+        <v>56</v>
       </c>
       <c r="AA133">
-        <v>56</v>
-      </c>
-      <c r="AB133">
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:27">
       <c r="A134" s="1">
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D134" t="s">
         <v>414</v>
@@ -12813,30 +12468,27 @@
         <v>23.6</v>
       </c>
       <c r="X134">
-        <v>21.1</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="Y134">
-        <v>26</v>
+        <v>1.75435260342612</v>
       </c>
       <c r="Z134">
-        <v>1.75435260342612</v>
+        <v>89</v>
       </c>
       <c r="AA134">
-        <v>89</v>
-      </c>
-      <c r="AB134">
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:27">
       <c r="A135" s="1">
         <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D135" t="s">
         <v>414</v>
@@ -12899,33 +12551,30 @@
         <v>20.2</v>
       </c>
       <c r="X135">
-        <v>18.1</v>
+        <v>4</v>
       </c>
       <c r="Y135">
-        <v>22.1</v>
+        <v>1.12902637238898</v>
       </c>
       <c r="Z135">
-        <v>1.12902637238898</v>
+        <v>93</v>
       </c>
       <c r="AA135">
-        <v>93</v>
-      </c>
-      <c r="AB135">
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:27">
       <c r="A136" s="1">
         <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D136" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E136">
         <v>2.44263</v>
@@ -12985,33 +12634,30 @@
         <v>31.6</v>
       </c>
       <c r="X136">
-        <v>27.7</v>
+        <v>7.599999999999998</v>
       </c>
       <c r="Y136">
-        <v>35.3</v>
+        <v>1.68127408228778</v>
       </c>
       <c r="Z136">
-        <v>1.68127408228778</v>
+        <v>79</v>
       </c>
       <c r="AA136">
-        <v>79</v>
-      </c>
-      <c r="AB136">
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:27">
       <c r="A137" s="1">
         <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D137" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E137">
         <v>4.98691</v>
@@ -13071,33 +12717,30 @@
         <v>5.9</v>
       </c>
       <c r="X137">
-        <v>5.3</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="Y137">
-        <v>6.4</v>
+        <v>0.08405025662326961</v>
       </c>
       <c r="Z137">
-        <v>0.08405025662326961</v>
+        <v>99</v>
       </c>
       <c r="AA137">
-        <v>99</v>
-      </c>
-      <c r="AB137">
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:27">
       <c r="A138" s="1">
         <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E138">
         <v>5.72153</v>
@@ -13157,33 +12800,30 @@
         <v>3.8</v>
       </c>
       <c r="X138">
-        <v>3.5</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="Y138">
-        <v>4.2</v>
+        <v>0.0457361487341209</v>
       </c>
       <c r="Z138">
-        <v>0.0457361487341209</v>
+        <v>98</v>
       </c>
       <c r="AA138">
-        <v>98</v>
-      </c>
-      <c r="AB138">
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:27">
       <c r="A139" s="1">
         <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E139">
         <v>1.88076</v>
@@ -13243,33 +12883,30 @@
         <v>8.1</v>
       </c>
       <c r="X139">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="Y139">
-        <v>8.6</v>
+        <v>11.2152704069701</v>
       </c>
       <c r="Z139">
-        <v>11.2152704069701</v>
+        <v>97</v>
       </c>
       <c r="AA139">
-        <v>97</v>
-      </c>
-      <c r="AB139">
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:27">
       <c r="A140" s="1">
         <v>156</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E140">
         <v>3.35741</v>
@@ -13329,33 +12966,30 @@
         <v>13.5</v>
       </c>
       <c r="X140">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y140">
-        <v>15</v>
+        <v>-0.197584307980419</v>
       </c>
       <c r="Z140">
-        <v>-0.197584307980419</v>
+        <v>94</v>
       </c>
       <c r="AA140">
-        <v>94</v>
-      </c>
-      <c r="AB140">
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:27">
       <c r="A141" s="1">
         <v>157</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E141">
         <v>3.544344317</v>
@@ -13415,33 +13049,30 @@
         <v>11.7</v>
       </c>
       <c r="X141">
-        <v>10.3</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="Y141">
-        <v>13</v>
+        <v>0.33696949567002</v>
       </c>
       <c r="Z141">
-        <v>0.33696949567002</v>
+        <v>97</v>
       </c>
       <c r="AA141">
-        <v>97</v>
-      </c>
-      <c r="AB141">
         <v>98</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:27">
       <c r="A142" s="1">
         <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E142">
         <v>4.22099</v>
@@ -13501,30 +13132,27 @@
         <v>63.8</v>
       </c>
       <c r="X142">
-        <v>59.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y142">
-        <v>68</v>
+        <v>2.87446778597371</v>
       </c>
       <c r="Z142">
-        <v>2.87446778597371</v>
+        <v>97</v>
       </c>
       <c r="AA142">
-        <v>97</v>
-      </c>
-      <c r="AB142">
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:27">
       <c r="A143" s="1">
         <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D143" t="s">
         <v>415</v>
@@ -13587,33 +13215,30 @@
         <v>18.1</v>
       </c>
       <c r="X143">
-        <v>16.4</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="Y143">
-        <v>19.8</v>
+        <v>0.714803182702374</v>
       </c>
       <c r="Z143">
-        <v>0.714803182702374</v>
+        <v>87</v>
       </c>
       <c r="AA143">
-        <v>87</v>
-      </c>
-      <c r="AB143">
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:27">
       <c r="A144" s="1">
         <v>160</v>
       </c>
       <c r="B144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C144" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I144">
         <v>16.6666666666667</v>
@@ -13646,33 +13271,30 @@
         <v>3.5</v>
       </c>
       <c r="X144">
-        <v>3.2</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="Y144">
-        <v>3.8</v>
+        <v>0.529574492578638</v>
       </c>
       <c r="Z144">
-        <v>0.529574492578638</v>
+        <v>79</v>
       </c>
       <c r="AA144">
-        <v>79</v>
-      </c>
-      <c r="AB144">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:27">
       <c r="A145" s="1">
         <v>161</v>
       </c>
       <c r="B145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C145" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F145">
         <v>69.62099000000001</v>
@@ -13729,33 +13351,30 @@
         <v>56.9</v>
       </c>
       <c r="X145">
-        <v>52.3</v>
+        <v>9</v>
       </c>
       <c r="Y145">
-        <v>61.3</v>
+        <v>2.83857131709501</v>
       </c>
       <c r="Z145">
-        <v>2.83857131709501</v>
+        <v>98</v>
       </c>
       <c r="AA145">
-        <v>98</v>
-      </c>
-      <c r="AB145">
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:27">
       <c r="A146" s="1">
         <v>162</v>
       </c>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C146" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E146">
         <v>7.1861866868</v>
@@ -13815,33 +13434,30 @@
         <v>9.9</v>
       </c>
       <c r="X146">
-        <v>9.1</v>
+        <v>1.6</v>
       </c>
       <c r="Y146">
-        <v>10.7</v>
+        <v>1.70946363971145</v>
       </c>
       <c r="Z146">
-        <v>1.70946363971145</v>
+        <v>98</v>
       </c>
       <c r="AA146">
         <v>98</v>
       </c>
-      <c r="AB146">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28">
+    </row>
+    <row r="147" spans="1:27">
       <c r="A147" s="1">
         <v>163</v>
       </c>
       <c r="B147" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D147" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E147">
         <v>5.21994</v>
@@ -13901,33 +13517,30 @@
         <v>66.8</v>
       </c>
       <c r="X147">
-        <v>61.7</v>
+        <v>10</v>
       </c>
       <c r="Y147">
-        <v>71.7</v>
+        <v>2.84885484452168</v>
       </c>
       <c r="Z147">
-        <v>2.84885484452168</v>
+        <v>89</v>
       </c>
       <c r="AA147">
-        <v>89</v>
-      </c>
-      <c r="AB147">
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:27">
       <c r="A148" s="1">
         <v>164</v>
       </c>
       <c r="B148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C148" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D148" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E148">
         <v>4.99598</v>
@@ -13987,33 +13600,30 @@
         <v>7.6</v>
       </c>
       <c r="X148">
-        <v>6.8</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="Y148">
-        <v>8.4</v>
+        <v>-0.402005900874718</v>
       </c>
       <c r="Z148">
-        <v>-0.402005900874718</v>
+        <v>91</v>
       </c>
       <c r="AA148">
-        <v>91</v>
-      </c>
-      <c r="AB148">
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:27">
       <c r="A149" s="1">
         <v>165</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E149">
         <v>4.62848</v>
@@ -14073,33 +13683,30 @@
         <v>13.6</v>
       </c>
       <c r="X149">
-        <v>12.4</v>
+        <v>2.299999999999999</v>
       </c>
       <c r="Y149">
-        <v>14.7</v>
+        <v>2.79232906929128</v>
       </c>
       <c r="Z149">
-        <v>2.79232906929128</v>
+        <v>99</v>
       </c>
       <c r="AA149">
         <v>99</v>
       </c>
-      <c r="AB149">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28">
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" s="1">
         <v>166</v>
       </c>
       <c r="B150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D150" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E150">
         <v>3.40629</v>
@@ -14159,33 +13766,30 @@
         <v>192.6</v>
       </c>
       <c r="X150">
-        <v>183.5</v>
+        <v>17.80000000000001</v>
       </c>
       <c r="Y150">
-        <v>201.3</v>
+        <v>1.94498299278968</v>
       </c>
       <c r="Z150">
-        <v>1.94498299278968</v>
+        <v>84</v>
       </c>
       <c r="AA150">
-        <v>84</v>
-      </c>
-      <c r="AB150">
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:27">
       <c r="A151" s="1">
         <v>167</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E151">
         <v>3.01722</v>
@@ -14245,33 +13849,30 @@
         <v>2.8</v>
       </c>
       <c r="X151">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y151">
-        <v>3.1</v>
+        <v>1.77066120652919</v>
       </c>
       <c r="Z151">
-        <v>1.77066120652919</v>
+        <v>97</v>
       </c>
       <c r="AA151">
-        <v>97</v>
-      </c>
-      <c r="AB151">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:27">
       <c r="A152" s="1">
         <v>169</v>
       </c>
       <c r="B152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D152" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E152">
         <v>3.89133</v>
@@ -14331,33 +13932,30 @@
         <v>8.1</v>
       </c>
       <c r="X152">
-        <v>7.3</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="Y152">
-        <v>8.9</v>
+        <v>0.212173181801958</v>
       </c>
       <c r="Z152">
-        <v>0.212173181801958</v>
+        <v>99</v>
       </c>
       <c r="AA152">
-        <v>99</v>
-      </c>
-      <c r="AB152">
         <v>98</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:27">
       <c r="A153" s="1">
         <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C153" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D153" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E153">
         <v>5.38675</v>
@@ -14417,30 +14015,27 @@
         <v>3.4</v>
       </c>
       <c r="X153">
-        <v>3.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y153">
-        <v>3.7</v>
+        <v>0.43607948463593</v>
       </c>
       <c r="Z153">
-        <v>0.43607948463593</v>
+        <v>96</v>
       </c>
       <c r="AA153">
-        <v>96</v>
-      </c>
-      <c r="AB153">
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:27">
       <c r="A154" s="1">
         <v>171</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D154" t="s">
         <v>415</v>
@@ -14503,33 +14098,30 @@
         <v>32.8</v>
       </c>
       <c r="X154">
-        <v>29.2</v>
+        <v>7.000000000000004</v>
       </c>
       <c r="Y154">
-        <v>36.2</v>
+        <v>2.20536664318685</v>
       </c>
       <c r="Z154">
-        <v>2.20536664318685</v>
+        <v>79</v>
       </c>
       <c r="AA154">
-        <v>79</v>
-      </c>
-      <c r="AB154">
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:27">
       <c r="A155" s="1">
         <v>172</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F155">
         <v>117.0854</v>
@@ -14565,33 +14157,30 @@
         <v>156.2</v>
       </c>
       <c r="X155">
-        <v>148.9</v>
+        <v>13.79999999999998</v>
       </c>
       <c r="Y155">
-        <v>162.7</v>
+        <v>2.68532344492135</v>
       </c>
       <c r="Z155">
-        <v>2.68532344492135</v>
+        <v>45</v>
       </c>
       <c r="AA155">
-        <v>45</v>
-      </c>
-      <c r="AB155">
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:27">
       <c r="A156" s="1">
         <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C156" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E156">
         <v>5.43413</v>
@@ -14651,33 +14240,30 @@
         <v>52.9</v>
       </c>
       <c r="X156">
-        <v>48.2</v>
+        <v>9.199999999999996</v>
       </c>
       <c r="Y156">
-        <v>57.4</v>
+        <v>1.35162706343408</v>
       </c>
       <c r="Z156">
-        <v>1.35162706343408</v>
+        <v>66</v>
       </c>
       <c r="AA156">
-        <v>66</v>
-      </c>
-      <c r="AB156">
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:27">
       <c r="A157" s="1">
         <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C157" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F157">
         <v>83.312</v>
@@ -14725,27 +14311,24 @@
         <v>111.9</v>
       </c>
       <c r="X157">
-        <v>106</v>
+        <v>11.40000000000001</v>
       </c>
       <c r="Y157">
-        <v>117.4</v>
-      </c>
-      <c r="Z157">
         <v>4.32056510696823</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:27">
       <c r="A158" s="1">
         <v>175</v>
       </c>
       <c r="B158" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C158" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D158" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E158">
         <v>4.56952</v>
@@ -14805,33 +14388,30 @@
         <v>4.7</v>
       </c>
       <c r="X158">
-        <v>4.3</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="Y158">
-        <v>5</v>
+        <v>0.353072269221198</v>
       </c>
       <c r="Z158">
-        <v>0.353072269221198</v>
+        <v>97</v>
       </c>
       <c r="AA158">
-        <v>97</v>
-      </c>
-      <c r="AB158">
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:27">
       <c r="A159" s="1">
         <v>176</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C159" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E159">
         <v>1.74418</v>
@@ -14891,30 +14471,30 @@
         <v>10.3</v>
       </c>
       <c r="X159">
-        <v>9.4</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="Y159">
-        <v>11.2</v>
+        <v>0.987770481670205</v>
       </c>
       <c r="Z159">
-        <v>0.987770481670205</v>
+        <v>99</v>
       </c>
       <c r="AA159">
         <v>99</v>
       </c>
-      <c r="AB159">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28">
+    </row>
+    <row r="160" spans="1:27">
       <c r="A160" s="1">
         <v>177</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C160" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="D160" t="s">
+        <v>413</v>
       </c>
       <c r="E160">
         <v>3.49635</v>
@@ -14950,30 +14530,30 @@
         <v>9.9</v>
       </c>
       <c r="X160">
-        <v>8.9</v>
+        <v>1.9</v>
       </c>
       <c r="Y160">
-        <v>10.8</v>
+        <v>1.19329260092316</v>
       </c>
       <c r="Z160">
-        <v>1.19329260092316</v>
+        <v>95</v>
       </c>
       <c r="AA160">
-        <v>95</v>
-      </c>
-      <c r="AB160">
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:27">
       <c r="A161" s="1">
         <v>178</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="D161" t="s">
+        <v>413</v>
       </c>
       <c r="E161">
         <v>4.47126</v>
@@ -15033,30 +14613,30 @@
         <v>18.2</v>
       </c>
       <c r="X161">
-        <v>16.2</v>
+        <v>4</v>
       </c>
       <c r="Y161">
-        <v>20.2</v>
+        <v>1.2461980294458</v>
       </c>
       <c r="Z161">
-        <v>1.2461980294458</v>
+        <v>97</v>
       </c>
       <c r="AA161">
-        <v>97</v>
-      </c>
-      <c r="AB161">
         <v>95</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:27">
       <c r="A162" s="1">
         <v>180</v>
       </c>
       <c r="B162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C162" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="D162" t="s">
+        <v>413</v>
       </c>
       <c r="E162">
         <v>4.53692</v>
@@ -15116,33 +14696,30 @@
         <v>23.9</v>
       </c>
       <c r="X162">
-        <v>21.7</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="Y162">
-        <v>26</v>
+        <v>0.0613089946685532</v>
       </c>
       <c r="Z162">
-        <v>0.0613089946685532</v>
+        <v>99</v>
       </c>
       <c r="AA162">
         <v>99</v>
       </c>
-      <c r="AB162">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="163" spans="1:28">
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163" s="1">
         <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C163" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E163">
         <v>0.86847641607</v>
@@ -15202,30 +14779,27 @@
         <v>77.90000000000001</v>
       </c>
       <c r="X163">
-        <v>71.7</v>
+        <v>11.89999999999999</v>
       </c>
       <c r="Y163">
-        <v>83.59999999999999</v>
+        <v>2.26609784996105</v>
       </c>
       <c r="Z163">
-        <v>2.26609784996105</v>
+        <v>90</v>
       </c>
       <c r="AA163">
         <v>90</v>
       </c>
-      <c r="AB163">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28">
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164" s="1">
         <v>182</v>
       </c>
       <c r="B164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D164" t="s">
         <v>414</v>
@@ -15285,33 +14859,30 @@
         <v>22.2</v>
       </c>
       <c r="X164">
-        <v>19.4</v>
+        <v>5.400000000000002</v>
       </c>
       <c r="Y164">
-        <v>24.8</v>
+        <v>0.916062065944052</v>
       </c>
       <c r="Z164">
-        <v>0.916062065944052</v>
+        <v>96</v>
       </c>
       <c r="AA164">
-        <v>96</v>
-      </c>
-      <c r="AB164">
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:27">
       <c r="A165" s="1">
         <v>183</v>
       </c>
       <c r="B165" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C165" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E165">
         <v>6.93466</v>
@@ -15371,33 +14942,30 @@
         <v>91.90000000000001</v>
       </c>
       <c r="X165">
-        <v>86.59999999999999</v>
+        <v>10.30000000000001</v>
       </c>
       <c r="Y165">
-        <v>96.90000000000001</v>
+        <v>1.64527846146956</v>
       </c>
       <c r="Z165">
-        <v>1.64527846146956</v>
+        <v>89</v>
       </c>
       <c r="AA165">
-        <v>89</v>
-      </c>
-      <c r="AB165">
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:27">
       <c r="A166" s="1">
         <v>184</v>
       </c>
       <c r="B166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D166" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E166">
         <v>6.21968</v>
@@ -15457,33 +15025,30 @@
         <v>3</v>
       </c>
       <c r="X166">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="Y166">
-        <v>3.3</v>
+        <v>0.852524628765313</v>
       </c>
       <c r="Z166">
-        <v>0.852524628765313</v>
+        <v>98</v>
       </c>
       <c r="AA166">
-        <v>98</v>
-      </c>
-      <c r="AB166">
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:27">
       <c r="A167" s="1">
         <v>185</v>
       </c>
       <c r="B167" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C167" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D167" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E167">
         <v>5.3029</v>
@@ -15543,33 +15108,30 @@
         <v>4.5</v>
       </c>
       <c r="X167">
-        <v>4.1</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="Y167">
-        <v>4.9</v>
+        <v>1.0415580576588</v>
       </c>
       <c r="Z167">
-        <v>1.0415580576588</v>
+        <v>96</v>
       </c>
       <c r="AA167">
-        <v>96</v>
-      </c>
-      <c r="AB167">
         <v>92</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:27">
       <c r="A168" s="1">
         <v>186</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C168" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D168" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E168">
         <v>2.5960692865</v>
@@ -15629,33 +15191,30 @@
         <v>15.2</v>
       </c>
       <c r="X168">
-        <v>13.6</v>
+        <v>3.1</v>
       </c>
       <c r="Y168">
-        <v>16.7</v>
+        <v>2.35467475073097</v>
       </c>
       <c r="Z168">
-        <v>2.35467475073097</v>
+        <v>80</v>
       </c>
       <c r="AA168">
-        <v>80</v>
-      </c>
-      <c r="AB168">
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:27">
       <c r="A169" s="1">
         <v>187</v>
       </c>
       <c r="B169" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D169" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E169">
         <v>3.20437</v>
@@ -15715,33 +15274,30 @@
         <v>62.5</v>
       </c>
       <c r="X169">
-        <v>56</v>
+        <v>12.40000000000001</v>
       </c>
       <c r="Y169">
-        <v>68.40000000000001</v>
+        <v>2.38728840655547</v>
       </c>
       <c r="Z169">
-        <v>2.38728840655547</v>
+        <v>93</v>
       </c>
       <c r="AA169">
-        <v>93</v>
-      </c>
-      <c r="AB169">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:27">
       <c r="A170" s="1">
         <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C170" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D170" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E170">
         <v>2.393334637</v>
@@ -15801,33 +15357,30 @@
         <v>61.6</v>
       </c>
       <c r="X170">
-        <v>57.7</v>
+        <v>7.599999999999994</v>
       </c>
       <c r="Y170">
-        <v>65.3</v>
+        <v>3.01011693183804</v>
       </c>
       <c r="Z170">
-        <v>3.01011693183804</v>
+        <v>91</v>
       </c>
       <c r="AA170">
-        <v>91</v>
-      </c>
-      <c r="AB170">
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:27">
       <c r="A171" s="1">
         <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C171" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D171" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E171">
         <v>4.05897</v>
@@ -15887,33 +15440,30 @@
         <v>14.2</v>
       </c>
       <c r="X171">
-        <v>12.2</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="Y171">
-        <v>16</v>
+        <v>0.188395184979775</v>
       </c>
       <c r="Z171">
-        <v>0.188395184979775</v>
+        <v>99</v>
       </c>
       <c r="AA171">
-        <v>99</v>
-      </c>
-      <c r="AB171">
         <v>98</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:27">
       <c r="A172" s="1">
         <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C172" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D172" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E172">
         <v>3.27329</v>
@@ -15973,33 +15523,30 @@
         <v>61.7</v>
       </c>
       <c r="X172">
-        <v>56.4</v>
+        <v>10.2</v>
       </c>
       <c r="Y172">
-        <v>66.59999999999999</v>
+        <v>2.8796617089137</v>
       </c>
       <c r="Z172">
-        <v>2.8796617089137</v>
+        <v>72</v>
       </c>
       <c r="AA172">
-        <v>72</v>
-      </c>
-      <c r="AB172">
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:27">
       <c r="A173" s="1">
         <v>191</v>
       </c>
       <c r="B173" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C173" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E173">
         <v>4.44023</v>
@@ -16059,30 +15606,27 @@
         <v>101</v>
       </c>
       <c r="X173">
-        <v>93.8</v>
+        <v>14</v>
       </c>
       <c r="Y173">
-        <v>107.8</v>
+        <v>2.59534066386181</v>
       </c>
       <c r="Z173">
-        <v>2.59534066386181</v>
+        <v>86</v>
       </c>
       <c r="AA173">
-        <v>86</v>
-      </c>
-      <c r="AB173">
         <v>68</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:27">
       <c r="A174" s="1">
         <v>192</v>
       </c>
       <c r="B174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D174" t="s">
         <v>415</v>
@@ -16145,30 +15689,30 @@
         <v>13.7</v>
       </c>
       <c r="X174">
-        <v>12.1</v>
+        <v>3</v>
       </c>
       <c r="Y174">
-        <v>15.1</v>
+        <v>0.5210577390548889</v>
       </c>
       <c r="Z174">
-        <v>0.5210577390548889</v>
+        <v>99</v>
       </c>
       <c r="AA174">
         <v>99</v>
       </c>
-      <c r="AB174">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28">
+    </row>
+    <row r="175" spans="1:27">
       <c r="A175" s="1">
         <v>193</v>
       </c>
       <c r="B175" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C175" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="D175" t="s">
+        <v>413</v>
       </c>
       <c r="E175">
         <v>4.0064</v>
@@ -16228,33 +15772,30 @@
         <v>21.9</v>
       </c>
       <c r="X175">
-        <v>19.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y175">
-        <v>24.1</v>
+        <v>0.420808939652685</v>
       </c>
       <c r="Z175">
-        <v>0.420808939652685</v>
+        <v>90</v>
       </c>
       <c r="AA175">
-        <v>90</v>
-      </c>
-      <c r="AB175">
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:27">
       <c r="A176" s="1">
         <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C176" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D176" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E176">
         <v>5.97324</v>
@@ -16314,33 +15855,30 @@
         <v>17.5</v>
       </c>
       <c r="X176">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Y176">
-        <v>19</v>
+        <v>1.04342806820235</v>
       </c>
       <c r="Z176">
-        <v>1.04342806820235</v>
+        <v>98</v>
       </c>
       <c r="AA176">
-        <v>98</v>
-      </c>
-      <c r="AB176">
         <v>97</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:27">
       <c r="A177" s="1">
         <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C177" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D177" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E177">
         <v>2.64391</v>
@@ -16400,33 +15938,30 @@
         <v>15.8</v>
       </c>
       <c r="X177">
-        <v>14.2</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="Y177">
-        <v>17.4</v>
+        <v>1.25050393789875</v>
       </c>
       <c r="Z177">
-        <v>1.25050393789875</v>
+        <v>97</v>
       </c>
       <c r="AA177">
         <v>97</v>
       </c>
-      <c r="AB177">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28">
+    </row>
+    <row r="178" spans="1:27">
       <c r="A178" s="1">
         <v>196</v>
       </c>
       <c r="B178" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C178" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D178" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F178">
         <v>19.1544</v>
@@ -16483,30 +16018,27 @@
         <v>56.4</v>
       </c>
       <c r="X178">
-        <v>48.3</v>
+        <v>15.90000000000001</v>
       </c>
       <c r="Y178">
-        <v>64.2</v>
+        <v>1.25804015189722</v>
       </c>
       <c r="Z178">
-        <v>1.25804015189722</v>
+        <v>96</v>
       </c>
       <c r="AA178">
-        <v>96</v>
-      </c>
-      <c r="AB178">
         <v>99</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:27">
       <c r="A179" s="1">
         <v>198</v>
       </c>
       <c r="B179" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C179" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D179" t="s">
         <v>415</v>
@@ -16539,33 +16071,30 @@
         <v>31.6</v>
       </c>
       <c r="X179">
-        <v>28.5</v>
+        <v>6.200000000000003</v>
       </c>
       <c r="Y179">
-        <v>34.7</v>
+        <v>0.193532018643418</v>
       </c>
       <c r="Z179">
-        <v>0.193532018643418</v>
+        <v>89</v>
       </c>
       <c r="AA179">
-        <v>89</v>
-      </c>
-      <c r="AB179">
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:27">
       <c r="A180" s="1">
         <v>199</v>
       </c>
       <c r="B180" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D180" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E180">
         <v>2.96445</v>
@@ -16625,33 +16154,30 @@
         <v>78.3</v>
       </c>
       <c r="X180">
-        <v>71.2</v>
+        <v>13.89999999999999</v>
       </c>
       <c r="Y180">
-        <v>85.09999999999999</v>
+        <v>3.35965514198044</v>
       </c>
       <c r="Z180">
-        <v>3.35965514198044</v>
+        <v>80</v>
       </c>
       <c r="AA180">
-        <v>80</v>
-      </c>
-      <c r="AB180">
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:27">
       <c r="A181" s="1">
         <v>200</v>
       </c>
       <c r="B181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D181" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E181">
         <v>5.86266</v>
@@ -16711,33 +16237,30 @@
         <v>11.8</v>
       </c>
       <c r="X181">
-        <v>10.3</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="Y181">
-        <v>13.2</v>
+        <v>-0.397285236005943</v>
       </c>
       <c r="Z181">
-        <v>-0.397285236005943</v>
+        <v>52</v>
       </c>
       <c r="AA181">
-        <v>52</v>
-      </c>
-      <c r="AB181">
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" spans="1:27">
       <c r="A182" s="1">
         <v>201</v>
       </c>
       <c r="B182" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D182" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F182">
         <v>28.5238</v>
@@ -16794,33 +16317,30 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X182">
-        <v>7.8</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="Y182">
-        <v>9.699999999999999</v>
+        <v>8.956780682020501</v>
       </c>
       <c r="Z182">
-        <v>8.956780682020501</v>
+        <v>94</v>
       </c>
       <c r="AA182">
         <v>94</v>
       </c>
-      <c r="AB182">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="183" spans="1:28">
+    </row>
+    <row r="183" spans="1:27">
       <c r="A183" s="1">
         <v>202</v>
       </c>
       <c r="B183" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D183" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E183">
         <v>5.14471</v>
@@ -16880,30 +16400,30 @@
         <v>5.2</v>
       </c>
       <c r="X183">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="Y183">
-        <v>5.7</v>
+        <v>0.741689129591794</v>
       </c>
       <c r="Z183">
-        <v>0.741689129591794</v>
+        <v>94</v>
       </c>
       <c r="AA183">
-        <v>94</v>
-      </c>
-      <c r="AB183">
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" spans="1:27">
       <c r="A184" s="1">
         <v>203</v>
       </c>
       <c r="B184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C184" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="D184" t="s">
+        <v>413</v>
       </c>
       <c r="E184">
         <v>4.7893238053</v>
@@ -16963,30 +16483,27 @@
         <v>7.4</v>
       </c>
       <c r="X184">
-        <v>6.7</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="Y184">
-        <v>8.1</v>
+        <v>0.829319901089049</v>
       </c>
       <c r="Z184">
-        <v>0.829319901089049</v>
+        <v>95</v>
       </c>
       <c r="AA184">
-        <v>95</v>
-      </c>
-      <c r="AB184">
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" spans="1:27">
       <c r="A185" s="1">
         <v>204</v>
       </c>
       <c r="B185" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C185" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D185" t="s">
         <v>414</v>
@@ -17049,33 +16566,30 @@
         <v>9</v>
       </c>
       <c r="X185">
-        <v>8.1</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="Y185">
-        <v>9.9</v>
+        <v>0.343146248881466</v>
       </c>
       <c r="Z185">
-        <v>0.343146248881466</v>
+        <v>95</v>
       </c>
       <c r="AA185">
         <v>95</v>
       </c>
-      <c r="AB185">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28">
+    </row>
+    <row r="186" spans="1:27">
       <c r="A186" s="1">
         <v>205</v>
       </c>
       <c r="B186" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C186" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D186" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E186">
         <v>9.3747642238</v>
@@ -17135,30 +16649,27 @@
         <v>42.5</v>
       </c>
       <c r="X186">
-        <v>36.5</v>
+        <v>11.6</v>
       </c>
       <c r="Y186">
-        <v>48.1</v>
+        <v>2.82284968340424</v>
       </c>
       <c r="Z186">
-        <v>2.82284968340424</v>
+        <v>99</v>
       </c>
       <c r="AA186">
-        <v>99</v>
-      </c>
-      <c r="AB186">
         <v>98</v>
       </c>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" spans="1:27">
       <c r="A187" s="1">
         <v>206</v>
       </c>
       <c r="B187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C187" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D187" t="s">
         <v>415</v>
@@ -17221,30 +16732,27 @@
         <v>19</v>
       </c>
       <c r="X187">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Y187">
-        <v>21</v>
+        <v>2.34034469262969</v>
       </c>
       <c r="Z187">
-        <v>2.34034469262969</v>
+        <v>68</v>
       </c>
       <c r="AA187">
-        <v>68</v>
-      </c>
-      <c r="AB187">
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" spans="1:27">
       <c r="A188" s="1">
         <v>207</v>
       </c>
       <c r="B188" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D188" t="s">
         <v>414</v>
@@ -17307,33 +16815,30 @@
         <v>16</v>
       </c>
       <c r="X188">
-        <v>14</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="Y188">
-        <v>17.8</v>
+        <v>1.59736995963936</v>
       </c>
       <c r="Z188">
-        <v>1.59736995963936</v>
+        <v>78</v>
       </c>
       <c r="AA188">
-        <v>78</v>
-      </c>
-      <c r="AB188">
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" spans="1:27">
       <c r="A189" s="1">
         <v>208</v>
       </c>
       <c r="B189" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C189" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D189" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E189">
         <v>2.8134767891</v>
@@ -17393,33 +16898,30 @@
         <v>23.4</v>
       </c>
       <c r="X189">
-        <v>20.2</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="Y189">
-        <v>26.4</v>
+        <v>1.04940037653285</v>
       </c>
       <c r="Z189">
-        <v>1.04940037653285</v>
+        <v>93</v>
       </c>
       <c r="AA189">
-        <v>93</v>
-      </c>
-      <c r="AB189">
         <v>98</v>
       </c>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" spans="1:27">
       <c r="A190" s="1">
         <v>210</v>
       </c>
       <c r="B190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C190" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D190" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F190">
         <v>47.5236</v>
@@ -17455,27 +16957,24 @@
         <v>23.9</v>
       </c>
       <c r="X190">
-        <v>21.8</v>
+        <v>4</v>
       </c>
       <c r="Y190">
-        <v>25.8</v>
-      </c>
-      <c r="Z190">
         <v>2.89862866566735</v>
       </c>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" spans="1:27">
       <c r="A191" s="1">
         <v>211</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C191" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D191" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E191">
         <v>4.11816</v>
@@ -17535,33 +17034,30 @@
         <v>64.3</v>
       </c>
       <c r="X191">
-        <v>59.8</v>
+        <v>8.900000000000006</v>
       </c>
       <c r="Y191">
-        <v>68.7</v>
+        <v>2.37109034747102</v>
       </c>
       <c r="Z191">
-        <v>2.37109034747102</v>
+        <v>87</v>
       </c>
       <c r="AA191">
-        <v>87</v>
-      </c>
-      <c r="AB191">
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" spans="1:27">
       <c r="A192" s="1">
         <v>212</v>
       </c>
       <c r="B192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D192" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E192">
         <v>1.31817</v>
@@ -17621,33 +17117,30 @@
         <v>100.4</v>
       </c>
       <c r="X192">
-        <v>94.2</v>
+        <v>12.3</v>
       </c>
       <c r="Y192">
-        <v>106.5</v>
+        <v>3.01039366650975</v>
       </c>
       <c r="Z192">
-        <v>3.01039366650975</v>
+        <v>83</v>
       </c>
       <c r="AA192">
-        <v>83</v>
-      </c>
-      <c r="AB192">
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" spans="1:27">
       <c r="A193" s="1">
         <v>213</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C193" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E193">
         <v>2.5409</v>
@@ -17695,18 +17188,15 @@
         <v>97.09999999999999</v>
       </c>
       <c r="X193">
-        <v>89.90000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="Y193">
-        <v>103.7</v>
+        <v>1.44854071916209</v>
       </c>
       <c r="Z193">
-        <v>1.44854071916209</v>
+        <v>89</v>
       </c>
       <c r="AA193">
-        <v>89</v>
-      </c>
-      <c r="AB193">
         <v>90</v>
       </c>
     </row>
